--- a/myExcel.xlsx
+++ b/myExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rittick\Documents\GitHub\Git_Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26EF0E6-425D-455F-A801-C41688AF8E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BC2F04-B0C0-4A72-91F9-7ABAD215D07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Rittick</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Arghya</t>
+  </si>
+  <si>
+    <t>Carry</t>
   </si>
 </sst>
 </file>
@@ -366,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,6 +441,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/myExcel.xlsx
+++ b/myExcel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rittick\Documents\GitHub\Git_Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BC2F04-B0C0-4A72-91F9-7ABAD215D07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4DB71D-D710-4436-99BB-2F92FB00F247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Rittick</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Carry</t>
+  </si>
+  <si>
+    <t>Harry</t>
   </si>
 </sst>
 </file>
@@ -369,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,6 +452,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
